--- a/ガントチャート_ささみにく.xlsx
+++ b/ガントチャート_ささみにく.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDD164-4817-421A-B9E4-E91656B14C85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AADA58C-72F8-4739-B424-DA23A27739C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1377,6 +1377,12 @@
     <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1388,12 +1394,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2005,8 +2005,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2058,106 +2058,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="97">
+      <c r="D3" s="95"/>
+      <c r="E3" s="99">
         <v>45028</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="96">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="94">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="96">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="94">
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="96">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="94">
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="96">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94">
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="96">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="94">
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="96">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="94">
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="96">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="94">
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="96">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95"/>
-      <c r="BL4" s="96"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="43">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E16" s="85">
         <v>45047</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="43">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E17" s="85">
         <v>45057</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="43">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E18" s="85">
         <v>45065</v>
@@ -4623,17 +4623,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D33">
@@ -4813,6 +4813,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -4821,15 +4830,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5038,6 +5038,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5047,14 +5055,6 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80"/>
     <ds:schemaRef ds:uri="97975f9e-378d-4e63-8bbf-0c70a0e56ba6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
